--- a/Debugging-Cleaning/data/clean_star_wars_homeworlds.xlsx
+++ b/Debugging-Cleaning/data/clean_star_wars_homeworlds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9DFBA9-C0B6-481D-BA7A-5E389F5FE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B3F84-9651-4DFF-88BD-76D23FAF4259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -125,7 +125,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,170 +506,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA128B-B704-4ADD-81B2-4DF8D891E810}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A7 A10:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Debugging-Cleaning/data/clean_star_wars_homeworlds.xlsx
+++ b/Debugging-Cleaning/data/clean_star_wars_homeworlds.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B3F84-9651-4DFF-88BD-76D23FAF4259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CABDDD-91A2-4EA7-927B-8F7C57786688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BFFAF9EB-4C0E-4DFB-A376-5A501808BBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
@@ -125,7 +128,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -133,36 +136,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -187,6 +160,247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="clean_star_wars"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>name</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>height</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>mass</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>hair_color</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>skin_color</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>eye_color</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>birth_year</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>homeworld</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>species</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Luke Skywalker</v>
+          </cell>
+          <cell r="B2">
+            <v>172</v>
+          </cell>
+          <cell r="C2">
+            <v>77</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>blond</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>fair</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>blue</v>
+          </cell>
+          <cell r="G2">
+            <v>19</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>male</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Tatooine</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>Human</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>R2-D2</v>
+          </cell>
+          <cell r="B3">
+            <v>96</v>
+          </cell>
+          <cell r="C3">
+            <v>32</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>NA</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>white, blue</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>red</v>
+          </cell>
+          <cell r="G3">
+            <v>33</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>none</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>Naboo</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>Droid</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Darth Vader</v>
+          </cell>
+          <cell r="B4">
+            <v>202</v>
+          </cell>
+          <cell r="C4">
+            <v>136</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>none</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>white</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>yellow</v>
+          </cell>
+          <cell r="G4">
+            <v>41.9</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>male</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Tatooine</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>Human</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Leia Organa</v>
+          </cell>
+          <cell r="B5">
+            <v>150</v>
+          </cell>
+          <cell r="C5">
+            <v>49</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>brown</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>light</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>brown</v>
+          </cell>
+          <cell r="G5">
+            <v>19</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>female</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Alderaan</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>Human</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Chewbacca</v>
+          </cell>
+          <cell r="B6">
+            <v>228</v>
+          </cell>
+          <cell r="C6">
+            <v>112</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>brown</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>unknown</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>blue</v>
+          </cell>
+          <cell r="G6">
+            <v>200</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>male</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>Kashyyyk</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>Wookiee</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Han Solo</v>
+          </cell>
+          <cell r="B7">
+            <v>180</v>
+          </cell>
+          <cell r="C7">
+            <v>80</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>brown</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>fair</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>brown</v>
+          </cell>
+          <cell r="G7">
+            <v>29</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>male</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>Corellia</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>Human</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,15 +723,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
@@ -544,6 +758,14 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP($A2,[1]clean_star_wars!$A$1:$J$7,10,FALSE)</f>
+        <v>Wookiee</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP($A2,[1]clean_star_wars!$A$1:$J$7,1,FALSE)</f>
+        <v>Chewbacca</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -552,6 +774,14 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP($A3,[1]clean_star_wars!$A$1:$J$7,10,FALSE)</f>
+        <v>Human</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP($A3,[1]clean_star_wars!$A$1:$J$7,1,FALSE)</f>
+        <v>Darth Vader</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -560,6 +790,14 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP($A4,[1]clean_star_wars!$A$1:$J$7,10,FALSE)</f>
+        <v>Human</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP($A4,[1]clean_star_wars!$A$1:$J$7,1,FALSE)</f>
+        <v>Han Solo</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -568,6 +806,14 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP($A5,[1]clean_star_wars!$A$1:$J$7,10,FALSE)</f>
+        <v>Human</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP($A5,[1]clean_star_wars!$A$1:$J$7,1,FALSE)</f>
+        <v>Leia Organa</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -576,6 +822,14 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP($A6,[1]clean_star_wars!$A$1:$J$7,10,FALSE)</f>
+        <v>Human</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP($A6,[1]clean_star_wars!$A$1:$J$7,1,FALSE)</f>
+        <v>Luke Skywalker</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -584,10 +838,18 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP($A7,[1]clean_star_wars!$A$1:$J$7,10,FALSE)</f>
+        <v>Droid</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP($A7,[1]clean_star_wars!$A$1:$J$7,1,FALSE)</f>
+        <v>R2-D2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A7 A10:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
